--- a/lab2/lab2.xlsx
+++ b/lab2/lab2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Рабочий стол\MP_Lab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Рабочий стол\Материалы\Академическая деятельность\Семестр №5\Параллельное программирование\Лабораторные работы\parallel-programming\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC9A966-BFC6-46CC-BA71-7E01D1A40516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27032F3A-6FB4-4717-96F4-1DC8BFB54364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{02C42F24-E85B-47EB-8A4E-18D1CCDE6578}"/>
   </bookViews>
@@ -19,6 +19,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
